--- a/Testcase_data.xlsx
+++ b/Testcase_data.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Header Validation" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Main Menu Validation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Forgot Password Test" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -75,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,6 +90,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,8 +439,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -479,17 +483,17 @@
       </c>
       <c r="F1" s="4" t="inlineStr">
         <is>
-          <t>Header Text</t>
+          <t>HEADER TEXT</t>
         </is>
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>Locators Value</t>
+          <t>LOCATORS VALUE</t>
         </is>
       </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>Test  Status</t>
+          <t>TEST STATUS</t>
         </is>
       </c>
     </row>
@@ -772,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -816,17 +820,17 @@
       </c>
       <c r="F1" s="4" t="inlineStr">
         <is>
-          <t>Menu Text</t>
+          <t>MENU TEXT</t>
         </is>
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>Locators Value</t>
+          <t>LOCATORS VALUE</t>
         </is>
       </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>Test  Status</t>
+          <t>TEST STATUS</t>
         </is>
       </c>
     </row>
@@ -1281,6 +1285,298 @@
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>Test passed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.28515625" customWidth="1" min="1" max="1"/>
+    <col width="24.7109375" customWidth="1" min="2" max="2"/>
+    <col width="16.42578125" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="36.7109375" customWidth="1" min="5" max="5"/>
+    <col width="20.140625" customWidth="1" min="6" max="6"/>
+    <col width="50.7109375" customWidth="1" min="7" max="7"/>
+    <col width="18.5703125" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SI.NO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEST_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>NAME OF TESTER</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>TEST PARAMETER</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>USERNAME</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>EXPECTED LOCATOR</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>TEST STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>forgot_password_test_001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>To validate forgot password option</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>//*[@id="app"]/div[1]/div[1]/div/h6</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Test passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>forgot_password_test_002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>To validate forgot password option</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>agdhgfvw</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>//*[@id="app"]/div[1]/div[1]/div/h6</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Test passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>forgot_password_test_003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>To validate forgot password option</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XFDHKJGYU</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>//*[@id="app"]/div[1]/div[1]/div/h6</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Test passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>forgot_password_test_004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>To validate forgot password option</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>123654</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>//*[@id="app"]/div[1]/div[1]/div/h6</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Test passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>forgot_password_test_005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>To validate forgot password option</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$%^&amp;^&amp;*</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>//*[@id="app"]/div[1]/div[1]/div/h6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Test passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>forgot_password_test_006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>To validate forgot password option</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>//*[@id="app"]/div[1]/div[1]/div/form/div[1]/div/span</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Test passed</t>
         </is>
